--- a/Tags FMS.xlsx
+++ b/Tags FMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasie\Dropbox\Pós-Graduação\Doutorado\Projeto Gêmeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD772F-4234-46A4-BEED-1630ABA65408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B6ED0-A768-4FF2-A6CE-6F1880D1E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" firstSheet="1" activeTab="7" xr2:uid="{40EF4BFC-AF55-460A-8975-C4A1791E413A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" firstSheet="4" activeTab="7" xr2:uid="{40EF4BFC-AF55-460A-8975-C4A1791E413A}"/>
   </bookViews>
   <sheets>
     <sheet name="20 - Mestre" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2622">
   <si>
     <t>I125.0</t>
   </si>
@@ -7858,6 +7858,48 @@
   </si>
   <si>
     <t>Number of Requested Turns to be used with C_105_Rotation</t>
+  </si>
+  <si>
+    <t>Part in Magazine</t>
+  </si>
+  <si>
+    <t>C_85_Part_Mag</t>
+  </si>
+  <si>
+    <t>SC_Part_Mag</t>
+  </si>
+  <si>
+    <t>Existing Parts</t>
+  </si>
+  <si>
+    <t>QB86</t>
+  </si>
+  <si>
+    <t>IB86</t>
+  </si>
+  <si>
+    <t>C_86_Mag_Parts</t>
+  </si>
+  <si>
+    <t>SC_86_Mag_Parts</t>
+  </si>
+  <si>
+    <t>Number of Existing Parts in Magazine</t>
+  </si>
+  <si>
+    <t>QB87</t>
+  </si>
+  <si>
+    <t>IB87</t>
+  </si>
+  <si>
+    <t>Number of Parts Still Needed in Counted Mode</t>
+  </si>
+  <si>
+    <t>C_87_RQ_MParts</t>
+  </si>
+  <si>
+    <t>SC_87_RQ_MParts</t>
   </si>
 </sst>
 </file>
@@ -10824,10 +10866,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142972CD-A6EE-4929-AF75-CFF7661A3FD2}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17112,9 +17154,9 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42:K43"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19285,8 +19327,8 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42:D45"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21574,9 +21616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24910D0-D22F-4B4B-8B21-8B2C001EBD47}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23881,9 +23923,9 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25201,9 +25243,15 @@
       <c r="C44" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="D44" s="28" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>2610</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="32"/>
       <c r="I44" s="25" t="s">
@@ -25344,16 +25392,24 @@
       <c r="M49" s="28"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="25" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="A50" s="33" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>2615</v>
+      </c>
       <c r="H50" s="30"/>
       <c r="I50" s="25" t="s">
         <v>2084</v>
@@ -25366,16 +25422,12 @@
       <c r="M50" s="31"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="25" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
       <c r="H51" s="30"/>
       <c r="I51" s="25" t="s">
         <v>2085</v>
@@ -25388,16 +25440,12 @@
       <c r="M51" s="31"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="30"/>
-      <c r="B52" s="25" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
       <c r="H52" s="30"/>
       <c r="I52" s="25" t="s">
         <v>2086</v>
@@ -25410,16 +25458,12 @@
       <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="30"/>
-      <c r="B53" s="25" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
       <c r="H53" s="30"/>
       <c r="I53" s="25" t="s">
         <v>2087</v>
@@ -25432,16 +25476,12 @@
       <c r="M53" s="31"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="30"/>
-      <c r="B54" s="25" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
       <c r="H54" s="30"/>
       <c r="I54" s="25" t="s">
         <v>2088</v>
@@ -25454,16 +25494,12 @@
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="25" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="H55" s="30"/>
       <c r="I55" s="25" t="s">
         <v>2089</v>
@@ -25476,16 +25512,12 @@
       <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="25" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>2090</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
       <c r="H56" s="30"/>
       <c r="I56" s="25" t="s">
         <v>2090</v>
@@ -25498,16 +25530,12 @@
       <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="25" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
       <c r="H57" s="30"/>
       <c r="I57" s="25" t="s">
         <v>2091</v>
@@ -25520,16 +25548,24 @@
       <c r="M57" s="31"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="30"/>
-      <c r="B58" s="25" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
+      <c r="A58" s="33" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>2621</v>
+      </c>
       <c r="H58" s="30"/>
       <c r="I58" s="25" t="s">
         <v>2092</v>
@@ -25542,16 +25578,12 @@
       <c r="M58" s="31"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="25" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>2093</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="H59" s="30"/>
       <c r="I59" s="25" t="s">
         <v>2093</v>
@@ -25564,16 +25596,12 @@
       <c r="M59" s="31"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="30"/>
-      <c r="B60" s="25" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
       <c r="H60" s="30"/>
       <c r="I60" s="25" t="s">
         <v>2094</v>
@@ -25586,16 +25614,12 @@
       <c r="M60" s="31"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="30"/>
-      <c r="B61" s="25" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>2095</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
       <c r="H61" s="30"/>
       <c r="I61" s="25" t="s">
         <v>2095</v>
@@ -25608,16 +25632,12 @@
       <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="25" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
       <c r="H62" s="30"/>
       <c r="I62" s="25" t="s">
         <v>2096</v>
@@ -25630,16 +25650,12 @@
       <c r="M62" s="31"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="25" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>2097</v>
-      </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
       <c r="H63" s="30"/>
       <c r="I63" s="25" t="s">
         <v>2097</v>
@@ -25652,16 +25668,12 @@
       <c r="M63" s="31"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="30"/>
-      <c r="B64" s="25" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>2098</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
       <c r="H64" s="30"/>
       <c r="I64" s="25" t="s">
         <v>2098</v>
@@ -25674,16 +25686,12 @@
       <c r="M64" s="31"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="30"/>
-      <c r="B65" s="25" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
       <c r="H65" s="30"/>
       <c r="I65" s="25" t="s">
         <v>2099</v>
@@ -26048,7 +26056,19 @@
       <c r="M81" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E57"/>
     <mergeCell ref="M26:M33"/>
     <mergeCell ref="K26:K33"/>
     <mergeCell ref="L26:L33"/>
@@ -26070,10 +26090,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBDBD59-85D1-43B6-BB68-C3493CE4F18A}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tags FMS.xlsx
+++ b/Tags FMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasie\Dropbox\Pós-Graduação\Doutorado\Projeto Gêmeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B6ED0-A768-4FF2-A6CE-6F1880D1E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BF546E-0ADE-40B8-83F1-CB64D568641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" firstSheet="4" activeTab="7" xr2:uid="{40EF4BFC-AF55-460A-8975-C4A1791E413A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" xr2:uid="{40EF4BFC-AF55-460A-8975-C4A1791E413A}"/>
   </bookViews>
   <sheets>
     <sheet name="20 - Mestre" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="2635">
   <si>
     <t>I125.0</t>
   </si>
@@ -7900,6 +7900,45 @@
   </si>
   <si>
     <t>SC_87_RQ_MParts</t>
+  </si>
+  <si>
+    <t>QB106</t>
+  </si>
+  <si>
+    <t>IB106</t>
+  </si>
+  <si>
+    <t>RT Turns</t>
+  </si>
+  <si>
+    <t>Counter of positions changed for the Rotation Table</t>
+  </si>
+  <si>
+    <t>C_106_RT_Counter</t>
+  </si>
+  <si>
+    <t>SC_106_RT_Counter</t>
+  </si>
+  <si>
+    <t>AS-I &amp; Cart Routing</t>
+  </si>
+  <si>
+    <t>Route Arrive</t>
+  </si>
+  <si>
+    <t>Route Depart</t>
+  </si>
+  <si>
+    <t>A_23_CRoute_Out</t>
+  </si>
+  <si>
+    <t>A_23_CRoute_In</t>
+  </si>
+  <si>
+    <t>Route Depart (Vision)</t>
+  </si>
+  <si>
+    <t>Route Arrive (Vision)</t>
   </si>
 </sst>
 </file>
@@ -8596,10 +8635,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C093F452-249D-4929-8678-9093867822FD}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9313,16 +9352,24 @@
       <c r="C32" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2631</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>2632</v>
+      </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9444,13 +9491,13 @@
         <v>1192</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1551</v>
+        <v>2514</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1673</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9479,15 +9526,9 @@
       <c r="J37" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>2513</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>2516</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
@@ -9556,13 +9597,13 @@
         <v>1220</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>2514</v>
+        <v>1551</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>2515</v>
+        <v>1673</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -9577,13 +9618,21 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>2516</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>437</v>
@@ -9696,13 +9745,13 @@
         <v>1200</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1552</v>
+        <v>2517</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>1675</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9731,15 +9780,9 @@
       <c r="J45" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>2536</v>
-      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
@@ -9795,7 +9838,7 @@
       <c r="J47" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
@@ -9808,13 +9851,13 @@
         <v>1228</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>2517</v>
+        <v>1552</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>2518</v>
+        <v>1675</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
@@ -9833,9 +9876,15 @@
       <c r="C49" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>2536</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>446</v>
@@ -9948,13 +9997,13 @@
         <v>1348</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>1553</v>
+        <v>2519</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1677</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9983,15 +10032,9 @@
       <c r="J53" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>2533</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>2534</v>
-      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
@@ -10060,13 +10103,13 @@
         <v>1320</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2519</v>
+        <v>1553</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2520</v>
+        <v>1677</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
@@ -10085,9 +10128,15 @@
       <c r="C57" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2534</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>452</v>
@@ -10200,13 +10249,13 @@
         <v>1356</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>1554</v>
+        <v>2521</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1679</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10235,15 +10284,9 @@
       <c r="J61" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>2529</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>2530</v>
-      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
@@ -10312,13 +10355,13 @@
         <v>1328</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>2521</v>
+        <v>1554</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>2522</v>
+        <v>1679</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
@@ -10337,9 +10380,15 @@
       <c r="C65" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>2530</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>461</v>
@@ -10452,13 +10501,13 @@
         <v>1364</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>1555</v>
+        <v>2523</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1681</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10487,15 +10536,9 @@
       <c r="J69" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>2531</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>2532</v>
-      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
@@ -10564,13 +10607,13 @@
         <v>1336</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>2523</v>
+        <v>1555</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>2524</v>
+        <v>1681</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
@@ -10589,9 +10632,15 @@
       <c r="C73" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>2532</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>470</v>
@@ -10704,13 +10753,13 @@
         <v>1372</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1116</v>
+        <v>2629</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1556</v>
+        <v>2525</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1683</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10739,15 +10788,9 @@
       <c r="J77" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>2527</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>2528</v>
-      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
@@ -10803,7 +10846,7 @@
       <c r="J79" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="K79" s="1"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
@@ -10816,13 +10859,13 @@
         <v>1344</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2511</v>
+        <v>1116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>2525</v>
+        <v>1556</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>2526</v>
+        <v>1683</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
@@ -10841,9 +10884,15 @@
       <c r="C81" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>2528</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
         <v>479</v>
@@ -10866,10 +10915,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142972CD-A6EE-4929-AF75-CFF7661A3FD2}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12356,16 +12405,24 @@
       <c r="M49" s="28"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="25" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>2281</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="A50" s="33" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>2627</v>
+      </c>
       <c r="H50" s="30"/>
       <c r="I50" s="25" t="s">
         <v>2281</v>
@@ -12378,16 +12435,12 @@
       <c r="M50" s="31"/>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="25" t="s">
-        <v>2250</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
       <c r="H51" s="30"/>
       <c r="I51" s="25" t="s">
         <v>2282</v>
@@ -12400,16 +12453,12 @@
       <c r="M51" s="31"/>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="30"/>
-      <c r="B52" s="25" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
       <c r="H52" s="30"/>
       <c r="I52" s="25" t="s">
         <v>2283</v>
@@ -12422,16 +12471,12 @@
       <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="30"/>
-      <c r="B53" s="25" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
       <c r="H53" s="30"/>
       <c r="I53" s="25" t="s">
         <v>2284</v>
@@ -12444,16 +12489,12 @@
       <c r="M53" s="31"/>
     </row>
     <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="30"/>
-      <c r="B54" s="25" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>2285</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
       <c r="H54" s="30"/>
       <c r="I54" s="25" t="s">
         <v>2285</v>
@@ -12466,16 +12507,12 @@
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="25" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="H55" s="30"/>
       <c r="I55" s="25" t="s">
         <v>2286</v>
@@ -12488,16 +12525,12 @@
       <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="25" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>2287</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
       <c r="H56" s="30"/>
       <c r="I56" s="25" t="s">
         <v>2287</v>
@@ -12510,16 +12543,12 @@
       <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="25" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
       <c r="H57" s="30"/>
       <c r="I57" s="25" t="s">
         <v>2288</v>
@@ -13060,7 +13089,13 @@
       <c r="M81" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E57"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="H34:H41"/>
     <mergeCell ref="A42:A49"/>
@@ -13083,7 +13118,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
@@ -15051,10 +15086,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F8AD1-8CF6-42BD-8EE9-5B986B1C1596}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42:K44"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15989,8 +16024,8 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>594</v>
+      <c r="A34" s="33" t="s">
+        <v>2628</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>1455</v>
@@ -16025,7 +16060,7 @@
       <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="25" t="s">
         <v>1456</v>
       </c>
@@ -16057,7 +16092,7 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
         <v>1457</v>
       </c>
@@ -16089,7 +16124,7 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
         <v>1458</v>
       </c>
@@ -16121,7 +16156,7 @@
       <c r="M37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="25" t="s">
         <v>1459</v>
       </c>
@@ -16147,7 +16182,7 @@
       <c r="M38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
         <v>1460</v>
       </c>
@@ -16173,7 +16208,7 @@
       <c r="M39" s="28"/>
     </row>
     <row r="40" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="25" t="s">
         <v>1461</v>
       </c>
@@ -16201,7 +16236,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
         <v>1462</v>
       </c>
@@ -17154,9 +17189,9 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19327,7 +19362,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -21616,9 +21651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24910D0-D22F-4B4B-8B21-8B2C001EBD47}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23922,10 +23957,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225A2C93-62E4-44E9-B09D-BF2E82D39C59}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50:F57"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
